--- a/biology/Zoologie/Blonde_de_Carinthie/Blonde_de_Carinthie.xlsx
+++ b/biology/Zoologie/Blonde_de_Carinthie/Blonde_de_Carinthie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La blonde de Carinthie ou Kärntner Blondvieh est une race bovine autrichienne. Elle a failli s'éteindre dans les années 1970 et a été sauvée grâce à un plan d'action de l'Arche Austria[1].
+La blonde de Carinthie ou Kärntner Blondvieh est une race bovine autrichienne. Elle a failli s'éteindre dans les années 1970 et a été sauvée grâce à un plan d'action de l'Arche Austria.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire de Carinthie. Une origine possible de cette race blonde au pays des pie rouges et des brunes pourrait être espagnole : l'empire des Habsbourg comprenait au XVIe siècle l'Espagne et l'Autriche. Comme pour les races chevalines où le Pure race espagnole a servi à créer la race Lippizan, des races espagnoles du Rameau blond et rouge auraient pu être utilisées. Dans les années 1960, elle a reçu l'influence de la fleckvieh. Le livre généalogique date de 1982. En 1997, on recensait 250 vaches dont 227 inscrites au registre et 12 taureaux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire de Carinthie. Une origine possible de cette race blonde au pays des pie rouges et des brunes pourrait être espagnole : l'empire des Habsbourg comprenait au XVIe siècle l'Espagne et l'Autriche. Comme pour les races chevalines où le Pure race espagnole a servi à créer la race Lippizan, des races espagnoles du Rameau blond et rouge auraient pu être utilisées. Dans les années 1960, elle a reçu l'influence de la fleckvieh. Le livre généalogique date de 1982. En 1997, on recensait 250 vaches dont 227 inscrites au registre et 12 taureaux.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe froment clair et des cornes de taille moyenne, relevées et à pointes grises. Les muqueuses sont rosées. La vache mesure 130 cm au garrot pour 550 kg et le taureau 140 cm pour 825 kg.
 </t>
@@ -574,7 +590,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race classée bouchère. Elle est issue d'un ancien animal de trait. Elle donne une viande d'excellente qualité avec des carcasses bien conformées. C'est une race montagnarde apte à la vie d'alpage en plein air.
 </t>
